--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,7</t>
+          <t>8,05; 13,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,15</t>
+          <t>7,22; 12,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,09</t>
+          <t>4,78; 10,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,75</t>
+          <t>2,77; 11,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 20,17</t>
+          <t>13,54; 20,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 21,8</t>
+          <t>14,38; 22,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 13,56</t>
+          <t>7,5; 13,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,39</t>
+          <t>7,98; 18,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,66</t>
+          <t>11,53; 15,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,08</t>
+          <t>11,41; 16,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,68</t>
+          <t>6,92; 10,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,8</t>
+          <t>6,58; 12,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,38</t>
+          <t>11,77; 17,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,59</t>
+          <t>11,32; 16,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 12,06</t>
+          <t>6,91; 11,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,84</t>
+          <t>5,9; 13,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 22,62</t>
+          <t>16,4; 22,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 23,26</t>
+          <t>16,83; 23,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,83</t>
+          <t>9,48; 14,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,48</t>
+          <t>8,86; 15,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 18,94</t>
+          <t>14,8; 18,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,96</t>
+          <t>14,82; 18,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,37</t>
+          <t>8,87; 12,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,86</t>
+          <t>8,13; 12,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,12</t>
+          <t>15,19; 21,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,62</t>
+          <t>13,89; 19,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,06</t>
+          <t>7,15; 11,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,87</t>
+          <t>9,42; 15,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,25</t>
+          <t>19,06; 24,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,13</t>
+          <t>21,64; 28,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,97</t>
+          <t>10,17; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,31</t>
+          <t>14,22; 19,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 22,31</t>
+          <t>17,91; 22,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,18</t>
+          <t>18,59; 23,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,62</t>
+          <t>9,11; 12,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,32</t>
+          <t>12,4; 16,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,69</t>
+          <t>14,88; 21,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,96</t>
+          <t>12,66; 19,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 17,17</t>
+          <t>11,62; 17,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 16,88</t>
+          <t>10,57; 16,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 27,03</t>
+          <t>19,05; 26,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 32,3</t>
+          <t>24,94; 32,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,71</t>
+          <t>12,86; 18,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,76</t>
+          <t>17,04; 22,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 23,36</t>
+          <t>18,09; 23,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,47</t>
+          <t>19,71; 24,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,15</t>
+          <t>12,92; 17,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,58</t>
+          <t>14,24; 18,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 25,42</t>
+          <t>17,1; 25,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 24,16</t>
+          <t>16,06; 24,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,97</t>
+          <t>9,41; 15,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,44</t>
+          <t>15,29; 21,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,54; 31,22</t>
+          <t>22,4; 31,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,92; 33,33</t>
+          <t>24,3; 32,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 25,29</t>
+          <t>17,85; 25,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,03</t>
+          <t>20,94; 26,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,14; 27,06</t>
+          <t>20,61; 27,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 27,46</t>
+          <t>21,62; 28,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,86</t>
+          <t>14,77; 19,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 22,63</t>
+          <t>18,73; 22,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,61</t>
+          <t>17,52; 24,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,54; 22,94</t>
+          <t>15,6; 22,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 19,08</t>
+          <t>13,32; 19,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,44</t>
+          <t>15,59; 20,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,24; 30,16</t>
+          <t>23,47; 30,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,09; 36,01</t>
+          <t>29,22; 36,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,73; 28,87</t>
+          <t>21,36; 27,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,22; 53,26</t>
+          <t>25,26; 53,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,74</t>
+          <t>22,03; 26,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,32; 29,37</t>
+          <t>24,47; 29,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 23,1</t>
+          <t>18,54; 23,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 44,1</t>
+          <t>21,98; 41,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,58; 18,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,32; 16,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,59; 12,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 14,87</t>
+          <t>12,28; 14,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>21,09; 23,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,39; 27,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,41; 17,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,41</t>
+          <t>19,02; 30,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,84; 20,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,85; 21,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,39; 15,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,8</t>
+          <t>16,36; 23,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,72</t>
+          <t>8,43; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,84</t>
+          <t>7,37; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,08</t>
+          <t>4,71; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 20,31</t>
+          <t>13,2; 19,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 22,28</t>
+          <t>14,1; 21,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,52</t>
+          <t>7,59; 13,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 15,86</t>
+          <t>11,52; 15,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 16,18</t>
+          <t>11,23; 16,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,84</t>
+          <t>6,76; 10,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,31</t>
+          <t>11,83; 16,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,87</t>
+          <t>11,12; 16,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,86</t>
+          <t>7,03; 12,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 22,46</t>
+          <t>16,23; 22,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 23,41</t>
+          <t>16,92; 23,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,78</t>
+          <t>9,4; 14,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 18,85</t>
+          <t>14,78; 18,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 18,96</t>
+          <t>14,52; 18,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,35</t>
+          <t>8,88; 12,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 21,4</t>
+          <t>15,14; 21,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,91</t>
+          <t>14,14; 20,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,69</t>
+          <t>7,22; 11,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 24,89</t>
+          <t>18,83; 25,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,64; 28,22</t>
+          <t>21,67; 28,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,97</t>
+          <t>9,77; 15,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,49</t>
+          <t>18,01; 22,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,33</t>
+          <t>18,56; 23,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,54</t>
+          <t>9,03; 12,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,88</t>
+          <t>14,67; 21,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 19,03</t>
+          <t>12,65; 19,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 17,57</t>
+          <t>12,04; 17,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,38</t>
+          <t>19,54; 26,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 32,91</t>
+          <t>25,04; 32,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 18,85</t>
+          <t>12,9; 18,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 23,19</t>
+          <t>18,3; 23,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,56</t>
+          <t>19,82; 24,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 17,02</t>
+          <t>13,1; 17,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 25,44</t>
+          <t>17,32; 25,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,06; 24,32</t>
+          <t>16,42; 24,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,62</t>
+          <t>9,84; 15,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,4; 31,4</t>
+          <t>22,62; 31,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 32,85</t>
+          <t>24,38; 33,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,85; 25,52</t>
+          <t>17,63; 25,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,61; 27,05</t>
+          <t>20,96; 27,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,62; 28,07</t>
+          <t>21,46; 27,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,45</t>
+          <t>14,67; 19,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,58</t>
+          <t>17,66; 24,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,49</t>
+          <t>16,0; 22,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,04</t>
+          <t>13,16; 19,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,47; 30,18</t>
+          <t>23,02; 29,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,22; 36,45</t>
+          <t>29,38; 36,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 27,78</t>
+          <t>21,74; 28,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,03; 26,85</t>
+          <t>22,06; 27,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,47; 29,32</t>
+          <t>23,91; 29,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,54; 23,19</t>
+          <t>18,93; 23,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,58; 18,3</t>
+          <t>15,59; 18,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,96</t>
+          <t>14,63; 17,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,9</t>
+          <t>10,63; 12,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,09; 23,92</t>
+          <t>20,95; 23,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,39; 27,46</t>
+          <t>24,43; 27,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,97</t>
+          <t>15,4; 17,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,84; 20,71</t>
+          <t>18,76; 20,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,95</t>
+          <t>19,93; 22,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,09</t>
+          <t>13,38; 15,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,93</t>
+          <t>7,99; 13,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 13,07</t>
+          <t>7,38; 13,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,09</t>
+          <t>4,73; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,2</t>
+          <t>2,9; 11,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,2; 19,81</t>
+          <t>13,48; 20,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,63</t>
+          <t>14,5; 21,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 13,59</t>
+          <t>7,74; 13,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 18,62</t>
+          <t>8,33; 19,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 15,69</t>
+          <t>11,46; 15,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,23; 16,02</t>
+          <t>11,36; 16,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,69</t>
+          <t>6,94; 10,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,91</t>
+          <t>6,15; 12,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,95</t>
+          <t>12,17; 17,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,28</t>
+          <t>11,24; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,06</t>
+          <t>7,07; 12,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,24</t>
+          <t>5,59; 12,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,62</t>
+          <t>16,17; 22,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,96</t>
+          <t>16,77; 23,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,84</t>
+          <t>9,71; 14,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,68</t>
+          <t>8,97; 15,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,91</t>
+          <t>14,7; 18,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,79</t>
+          <t>14,78; 18,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,53</t>
+          <t>8,72; 12,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,97</t>
+          <t>8,1; 12,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,32</t>
+          <t>15,13; 21,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,19</t>
+          <t>13,98; 19,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,66</t>
+          <t>7,26; 12,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,03</t>
+          <t>9,32; 14,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 25,0</t>
+          <t>18,73; 25,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,67; 28,43</t>
+          <t>21,69; 28,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,01</t>
+          <t>9,84; 14,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,22</t>
+          <t>14,08; 19,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,25</t>
+          <t>17,94; 22,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,2</t>
+          <t>18,81; 23,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,65</t>
+          <t>9,12; 12,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 16,27</t>
+          <t>12,38; 16,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,77</t>
+          <t>14,82; 21,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,12</t>
+          <t>12,55; 18,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,41</t>
+          <t>11,68; 17,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,85</t>
+          <t>10,55; 16,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 26,48</t>
+          <t>19,14; 27,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 32,71</t>
+          <t>24,73; 32,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,87</t>
+          <t>12,87; 18,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,03</t>
+          <t>16,72; 21,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,33</t>
+          <t>18,18; 23,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,82; 24,87</t>
+          <t>19,42; 24,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 17,24</t>
+          <t>13,18; 17,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 18,66</t>
+          <t>14,42; 18,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 25,62</t>
+          <t>17,14; 25,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,59</t>
+          <t>16,04; 24,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,97</t>
+          <t>9,53; 15,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,29; 21,11</t>
+          <t>15,33; 21,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 31,23</t>
+          <t>22,54; 31,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 33,23</t>
+          <t>23,92; 33,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,91</t>
+          <t>18,04; 25,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 26,2</t>
+          <t>20,84; 26,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,19</t>
+          <t>21,14; 27,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,36</t>
+          <t>21,51; 27,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,75</t>
+          <t>14,56; 19,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,73; 22,91</t>
+          <t>18,63; 22,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,66; 24,77</t>
+          <t>17,32; 24,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,69</t>
+          <t>15,54; 22,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 19,19</t>
+          <t>13,45; 19,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,29</t>
+          <t>15,76; 20,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,02; 29,97</t>
+          <t>23,24; 30,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,38; 36,35</t>
+          <t>29,09; 36,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 28,28</t>
+          <t>21,73; 28,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,26; 53,63</t>
+          <t>25,22; 53,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 27,02</t>
+          <t>21,72; 26,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,91; 29,11</t>
+          <t>24,32; 29,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,93; 23,25</t>
+          <t>18,58; 23,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,98; 41,86</t>
+          <t>21,91; 44,1</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,34</t>
+          <t>15,64; 18,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,2</t>
+          <t>14,47; 17,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,82</t>
+          <t>10,62; 12,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 14,89</t>
+          <t>12,37; 14,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,81</t>
+          <t>21,04; 23,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,46</t>
+          <t>24,43; 27,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 17,98</t>
+          <t>15,32; 18,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,34</t>
+          <t>19,11; 29,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,76; 20,76</t>
+          <t>18,66; 20,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,93; 22,01</t>
+          <t>19,94; 21,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,38; 15,08</t>
+          <t>13,36; 15,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,38</t>
+          <t>16,4; 22,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,75</t>
+          <t>2,73; 11,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,39</t>
+          <t>8,57; 19,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,8</t>
+          <t>5,86; 12,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,84</t>
+          <t>5,62; 13,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,48</t>
+          <t>6,27; 13,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,86</t>
+          <t>7,04; 12,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,87</t>
+          <t>9,09; 14,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,31</t>
+          <t>14,05; 19,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,32</t>
+          <t>12,2; 16,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>14,2%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 16,88</t>
+          <t>4,42; 15,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 21,76</t>
+          <t>15,39; 21,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,58</t>
+          <t>9,05; 17,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,44</t>
+          <t>15,18; 21,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,03</t>
+          <t>20,82; 26,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 22,63</t>
+          <t>18,51; 22,49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>35,45%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,61</t>
+          <t>13,61; 22,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,54; 22,94</t>
+          <t>11,92; 20,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 19,08</t>
+          <t>10,53; 18,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,44</t>
+          <t>12,58; 18,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,24; 30,16</t>
+          <t>23,42; 32,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,09; 36,01</t>
+          <t>23,79; 33,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,73; 28,87</t>
+          <t>17,2; 25,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,22; 53,26</t>
+          <t>20,02; 81,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,74</t>
+          <t>20,21; 26,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,32; 29,37</t>
+          <t>19,53; 26,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,58; 23,1</t>
+          <t>15,06; 21,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 44,1</t>
+          <t>17,75; 66,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>26,26%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>19,84; 31,53</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 28,73</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14,75; 23,25</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 25,23</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 30,94</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30,94; 41,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 33,15</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26,6; 33,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21,97; 29,5</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 34,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 28,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24,13; 29,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>15,64; 18,27</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>14,47; 17,15</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>10,62; 12,82</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>12,37; 14,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 14,11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>21,04; 23,91</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>24,43; 27,56</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>15,32; 18,02</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,11; 29,41</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 37,26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>18,66; 20,69</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>19,94; 21,97</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>13,36; 15,08</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 22,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 26,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,7</t>
+          <t>8,32; 13,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,15</t>
+          <t>7,29; 13,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,09</t>
+          <t>4,81; 10,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,47</t>
+          <t>2,86; 11,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 20,17</t>
+          <t>13,38; 19,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 21,8</t>
+          <t>14,37; 21,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 13,56</t>
+          <t>7,61; 13,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,69</t>
+          <t>8,86; 19,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,66</t>
+          <t>11,46; 15,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,08</t>
+          <t>11,6; 16,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,68</t>
+          <t>7,03; 10,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,64</t>
+          <t>6,26; 12,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,38</t>
+          <t>11,97; 17,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,59</t>
+          <t>11,39; 17,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 12,06</t>
+          <t>6,93; 11,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 13,17</t>
+          <t>5,74; 13,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 22,62</t>
+          <t>16,2; 22,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 23,26</t>
+          <t>17,1; 23,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,83</t>
+          <t>9,61; 14,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,83</t>
+          <t>6,46; 13,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 18,94</t>
+          <t>14,7; 18,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 18,96</t>
+          <t>14,58; 18,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,37</t>
+          <t>8,88; 12,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,1</t>
+          <t>6,88; 12,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,12</t>
+          <t>15,17; 21,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,62</t>
+          <t>14,3; 19,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,06</t>
+          <t>7,38; 11,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,56</t>
+          <t>8,99; 14,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,25</t>
+          <t>18,88; 25,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,13</t>
+          <t>21,46; 28,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,97</t>
+          <t>9,93; 15,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 19,22</t>
+          <t>14,08; 19,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 22,31</t>
+          <t>17,82; 22,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,18</t>
+          <t>18,61; 23,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,62</t>
+          <t>9,1; 12,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,09</t>
+          <t>12,2; 15,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,69</t>
+          <t>15,03; 21,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,96</t>
+          <t>12,13; 18,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 17,17</t>
+          <t>11,88; 17,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,84</t>
+          <t>4,34; 15,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 27,03</t>
+          <t>19,27; 26,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 32,3</t>
+          <t>25,32; 32,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,71</t>
+          <t>12,73; 18,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,05</t>
+          <t>15,65; 21,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 23,36</t>
+          <t>17,94; 23,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,47</t>
+          <t>19,65; 24,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,15</t>
+          <t>12,84; 17,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,62</t>
+          <t>8,05; 17,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 25,42</t>
+          <t>17,48; 25,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 24,16</t>
+          <t>16,36; 24,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,97</t>
+          <t>9,81; 16,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,29</t>
+          <t>15,16; 21,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,54; 31,22</t>
+          <t>22,58; 31,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,92; 33,33</t>
+          <t>24,28; 32,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 25,29</t>
+          <t>17,93; 25,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,82; 26,0</t>
+          <t>20,64; 26,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,14; 27,06</t>
+          <t>21,18; 27,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 27,46</t>
+          <t>21,67; 27,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 19,86</t>
+          <t>14,49; 19,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,49</t>
+          <t>18,58; 22,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,61; 22,75</t>
+          <t>13,49; 22,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,92; 20,62</t>
+          <t>11,78; 20,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,53; 18,14</t>
+          <t>10,33; 18,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,78</t>
+          <t>12,79; 18,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 32,77</t>
+          <t>23,16; 32,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 33,23</t>
+          <t>24,27; 33,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 25,59</t>
+          <t>17,45; 25,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,02; 81,01</t>
+          <t>20,05; 77,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,64</t>
+          <t>19,97; 26,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,53; 26,32</t>
+          <t>19,46; 26,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,06; 21,14</t>
+          <t>15,16; 20,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 66,54</t>
+          <t>17,54; 67,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,84; 31,53</t>
+          <t>20,39; 32,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 28,73</t>
+          <t>17,56; 28,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,75; 23,25</t>
+          <t>14,71; 23,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,45; 25,23</t>
+          <t>17,39; 24,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,67; 30,94</t>
+          <t>20,96; 30,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,94; 41,28</t>
+          <t>31,27; 41,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,56; 33,15</t>
+          <t>23,18; 33,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,6; 33,04</t>
+          <t>26,58; 33,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,97; 29,5</t>
+          <t>21,89; 29,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,33; 34,96</t>
+          <t>27,37; 34,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 28,44</t>
+          <t>20,87; 28,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,13; 29,05</t>
+          <t>23,84; 28,64</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,27</t>
+          <t>15,61; 18,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,47; 17,15</t>
+          <t>14,48; 17,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,82</t>
+          <t>10,46; 12,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,11</t>
+          <t>9,69; 14,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,04; 23,91</t>
+          <t>20,9; 23,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,56</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,32; 18,02</t>
+          <t>15,38; 18,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,43; 37,26</t>
+          <t>18,59; 38,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,69</t>
+          <t>18,66; 20,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,94; 21,97</t>
+          <t>19,97; 22,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,08</t>
+          <t>13,37; 15,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,25</t>
+          <t>15,19; 26,29</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52961</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45085</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30233</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23543</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77134</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76137</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>40885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40826</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>130095</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>121222</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71118</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64369</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41130; 66467</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33123; 59083</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20194; 42537</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11443; 46442</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62548; 92740</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61547; 93859</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30132; 54674</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27760; 62256</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>110162; 151721</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>102381; 142059</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57307; 89204</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44671; 89145</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105631</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>54625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37768</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>120528</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>122292</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67529</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52746</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>226159</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>216307</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>122154</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90514</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88033; 125939</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78266; 116870</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40935; 69839</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24317; 55826</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>101323; 142659</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>104172; 142933</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>54145; 82935</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33027; 70686</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>200064; 252457</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>188985; 244869</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>102467; 144668</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>64340; 114552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>115448</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>114699</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62424</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61747</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>151696</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>175760</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>80991</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89515</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>267144</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>290459</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>143415</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151262</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>96858; 136292</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>97534; 135613</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49369; 79252</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48209; 77954</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>130228; 175522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>152159; 202196</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65408; 99084</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76379; 105225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>236778; 298784</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>258850; 321056</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120809; 166293</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>131633; 171692</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>94005</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94825</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>93218</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>94300</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>117659</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>176300</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101646</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132948</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>211664</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>271125</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>194864</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>227248</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78044; 112146</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74387; 114387</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>76585; 114477</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38531; 138753</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>99366; 138542</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>155552; 201114</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82624; 121847</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111593; 150444</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>185606; 239485</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>241200; 299458</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>166143; 221047</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128933; 277494</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>81429</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85792</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>59614</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>101174</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>108216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>127703</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>105564</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>127232</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>189646</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>213494</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>165179</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>228406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67595; 98502</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70237; 103931</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46763; 76579</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>85062; 119631</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>91221; 125652</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108715; 147554</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>88659; 126094</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>113114; 142904</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>167457; 218165</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>190097; 241486</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>140799; 189305</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>206056; 251725</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51865</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>48723</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>46879</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>56885</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>95595</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>101244</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>80719</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>288844</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>147460</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>149967</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>127599</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>345729</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39471; 64775</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>36378; 63612</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34531; 60690</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46974; 69471</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>79419; 110226</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>85676; 118780</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>65933; 96846</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>121839; 473304</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>126921; 169019</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>128766; 174249</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>107949; 148012</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>171084; 661616</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53329</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>57077</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>48010</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>59578</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>85213</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>140071</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>111220</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>126392</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>138542</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>197148</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>159230</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>185970</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42795; 67152</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43702; 71784</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>37797; 60606</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49185; 69868</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>69985; 101275</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>121633; 159931</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>92481; 134198</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>113079; 140533</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>119052; 161531</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>174583; 221923</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>136899; 185712</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>168839; 202834</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>554668</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>540216</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>395005</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>434995</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>756042</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>919506</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>588555</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>858503</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1310710</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1459722</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>983560</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1293498</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>511610; 596679</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>495880; 583831</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>354814; 433259</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>335345; 486187</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>706186; 803807</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>867953; 976539</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>544270; 637888</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>680531; 1391476</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1242138; 1385570</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1392870; 1538054</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>926931; 1047567</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1081742; 1871800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>